--- a/biology/Botanique/Clintonia_umbellulata/Clintonia_umbellulata.xlsx
+++ b/biology/Botanique/Clintonia_umbellulata/Clintonia_umbellulata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clintonia umbellulata , communément appelée clintonia blanche ou lis des bois tacheté , est une espèce de plante à fleurs de la famille des liliacées . L' épithète spécifique umbellulata signifie « ombellé », qui fait référence à la forme de l' inflorescence de la plante.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Clintonia umbellulata est une plante herbacée vivace qui se propage au moyen de rhizomes souterrains . Une plante mesure 27 à 60 cm (11 à 24 pouces) de hauteur avec 2 à 4 feuilles vert foncé, chacune de 18 à 30 cm (7 à 12 pouces) de long et de 4,5 à 8 cm (2 à 3 pouces) de large. L'inflorescence est une ombelle terminale unique avec 10–25(–30) fleurs tournées vers l'extérieur sur une tige florifère atteignant 50 cm (20 po) de haut. Chaque fleur a six tépales et six étamines. Les tépales sont blancs ou blanc verdâtre, souvent marqués de taches brunes violacées ou vertes, chaque tépale mesurant de 5,5 à 8 mm (0,2 à 0,3 po) de long et de 2,7 à 4 mm (0,1 à 0,2 po) de large. Les étamines sont 60 % plus longues que les tépales. Les fruits sont des baies noires (parfois bleu outremer), chacune de 6 à 8 mm (0,2 à 0,3 po) de long avec 2 à 4 graines par baie. Chaque graine mesure environ 3,5 mm (0,1 po) de long. 
 </t>
